--- a/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracker" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="FlagPercent">'Project Tracker'!$F$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Tracker'!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
   <si>
     <t>Category</t>
   </si>
@@ -198,16 +198,49 @@
   </si>
   <si>
     <t>Trễ so với deadline. Do bận phải làm các task research</t>
+  </si>
+  <si>
+    <t>Chưa quen framework</t>
+  </si>
+  <si>
+    <t>Chưa rõ business, 50%</t>
+  </si>
+  <si>
+    <t>Đã có implement sẵn , đang chờ confirm với thầy</t>
+  </si>
+  <si>
+    <t>[CAPSTONE_K5A_Group5] Weekly Report - 2013.1.21 - 2013.1.28</t>
+  </si>
+  <si>
+    <t>Trễ do đang underestimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đã có DOCS, T3 sẽ trình bày </t>
+  </si>
+  <si>
+    <t>Continue Create Vendor's Management Item function (SLN)</t>
+  </si>
+  <si>
+    <t>Create MOCKUP for Reporting&amp;Accounting Module (HTML)</t>
+  </si>
+  <si>
+    <t>Continue Research Accounting Module (DOC)</t>
+  </si>
+  <si>
+    <t>Continue create Basic Design for AutoSchedule module (DOC)</t>
+  </si>
+  <si>
+    <t>**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -285,6 +318,12 @@
       <strike/>
       <sz val="10"/>
       <color theme="3"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,7 +468,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,15 +541,6 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -520,25 +550,46 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,30 +619,30 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -610,11 +661,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -678,7 +729,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Filter Cover" descr="This is used to visually cover the filter control for a blank table column." title="Blank Shape"/>
+        <xdr:cNvPr id="2" name="Filter Cover" descr="This is used to visually cover the filter control for a blank table column."/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -738,7 +789,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Setup Button" descr="Click to view the Setup sheet." title="Navigation Button - Setup">
+        <xdr:cNvPr id="3" name="Setup Button" descr="Click to view the Setup sheet.">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Click to view Setup"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
@@ -811,7 +862,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Projects Button" descr="Click to view the Projects sheet." title="Navigation Button - Projects">
+        <xdr:cNvPr id="3" name="Projects Button" descr="Click to view the Projects sheet.">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="Click to view Projects"/>
         </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
@@ -868,8 +919,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N30" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B5:N30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N35" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B5:N35"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Task" dataCellStyle="Text"/>
     <tableColumn id="7" name="Category" dataCellStyle="Text"/>
@@ -1152,18 +1203,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:G28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
@@ -1171,27 +1222,27 @@
     <col min="4" max="4" width="29.28515625" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" style="8" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="24.5703125" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1">
+      <c r="B1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31"/>
+      <c r="C1" s="39"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1250,10 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
       <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1207,7 +1261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="20.25" customHeight="1">
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1340,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1324,7 +1378,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1362,7 +1416,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1400,7 +1454,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1440,7 +1494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1463,10 +1517,14 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.125</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="J11" s="17">
+        <v>41295</v>
+      </c>
+      <c r="K11" s="17">
+        <v>41295</v>
+      </c>
       <c r="L11" s="4">
-        <v>510</v>
+        <v>0.5</v>
       </c>
       <c r="M11" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
@@ -1474,7 +1532,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1500,19 +1558,21 @@
       <c r="J12" s="17">
         <v>41293</v>
       </c>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17">
+        <v>41295</v>
+      </c>
       <c r="L12" s="4">
-        <v>790</v>
+        <v>9</v>
       </c>
       <c r="M12" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>-40699</v>
+        <v>2</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="20.25" hidden="1" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1592,131 +1652,144 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="20" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+      <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="33">
         <v>41295</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="33">
         <v>41295</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="34">
         <v>4</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="35">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.5</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="22">
+      <c r="I15" s="36"/>
+      <c r="J15" s="33">
         <v>41295</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="26">
-        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>-40701</v>
-      </c>
-      <c r="N15" s="21" t="s">
+      <c r="K15" s="17">
+        <v>41630</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="37">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>331</v>
+      </c>
+      <c r="N15" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27" t="s">
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+      <c r="B16" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="33">
         <v>41295</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="33">
         <v>41296</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="34">
         <v>6</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="35">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.75</v>
       </c>
-      <c r="J16" s="17">
+      <c r="I16" s="36"/>
+      <c r="J16" s="33">
         <v>41295</v>
       </c>
       <c r="K16" s="17">
         <v>41295</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="34">
         <v>4</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="37">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21" t="s">
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+      <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="33">
         <v>41295</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="33">
         <v>41298</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="34">
         <v>8</v>
       </c>
       <c r="H17" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>1</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="4"/>
+      <c r="J17" s="17">
+        <v>41295</v>
+      </c>
+      <c r="K17" s="17">
+        <v>41299</v>
+      </c>
+      <c r="L17" s="4">
+        <v>8</v>
+      </c>
       <c r="M17" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="22">
         <v>41296</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="22">
         <v>41298</v>
       </c>
       <c r="G18" s="4">
@@ -1726,16 +1799,20 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.25</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="17">
+        <v>41296</v>
+      </c>
       <c r="K18" s="17"/>
       <c r="L18" s="4"/>
       <c r="M18" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-40702</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="20.25" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1773,23 +1850,23 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="25">
         <v>41296</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="25">
         <v>41297</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="26">
         <v>4</v>
       </c>
       <c r="H20" s="18">
@@ -1799,31 +1876,35 @@
       <c r="J20" s="17">
         <v>41296</v>
       </c>
-      <c r="K20" s="17"/>
-      <c r="L20" s="4"/>
+      <c r="K20" s="17">
+        <v>41297</v>
+      </c>
+      <c r="L20" s="4">
+        <v>3</v>
+      </c>
       <c r="M20" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>-40702</v>
+        <v>1</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="s">
+    <row r="21" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="33">
         <v>41296</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="33">
         <v>41296</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="34">
         <v>4</v>
       </c>
       <c r="H21" s="18">
@@ -1833,65 +1914,77 @@
       <c r="J21" s="17">
         <v>41296</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="4"/>
+      <c r="K21" s="17">
+        <v>41297</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
       <c r="M21" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>-40702</v>
+        <v>1</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B22" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="33">
         <v>41296</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="33">
         <v>41296</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="34">
         <v>2</v>
       </c>
       <c r="H22" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.25</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="17">
+        <v>41297</v>
+      </c>
+      <c r="K22" s="17">
+        <v>41297</v>
+      </c>
+      <c r="L22" s="4">
+        <v>3</v>
+      </c>
       <c r="M22" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+      <c r="N22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B23" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="33">
         <v>41296</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="33">
         <v>41297</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="34">
         <v>6</v>
       </c>
       <c r="H23" s="18">
@@ -1901,7 +1994,7 @@
       <c r="J23" s="17">
         <v>41296</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="17">
         <v>41297</v>
       </c>
       <c r="L23" s="4">
@@ -1915,7 +2008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="20.25" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -1938,32 +2031,40 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.25</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="4"/>
+      <c r="J24" s="17">
+        <v>41297</v>
+      </c>
+      <c r="K24" s="17">
+        <v>41297</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2</v>
+      </c>
       <c r="M24" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+      <c r="N24" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+      <c r="B25" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="28">
         <v>41297</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="28">
         <v>41301</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="29">
         <v>16</v>
       </c>
       <c r="H25" s="18">
@@ -1971,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="30"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="4"/>
       <c r="M25" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
@@ -1979,23 +2080,23 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B26" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="22">
         <v>41297</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="22">
         <v>41299</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="23">
         <v>10</v>
       </c>
       <c r="H26" s="18">
@@ -2003,31 +2104,33 @@
         <v>1.25</v>
       </c>
       <c r="J26" s="17"/>
-      <c r="K26" s="30"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="4"/>
       <c r="M26" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="N26" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="22">
         <v>41299</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="22">
         <v>41301</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="23">
         <v>12</v>
       </c>
       <c r="H27" s="18">
@@ -2035,15 +2138,17 @@
         <v>1.5</v>
       </c>
       <c r="J27" s="17"/>
-      <c r="K27" s="30"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="4"/>
       <c r="M27" s="6">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="20.25" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2066,28 +2171,46 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.75</v>
       </c>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="4"/>
+      <c r="J28" s="30">
+        <v>41299</v>
+      </c>
+      <c r="K28" s="17">
+        <v>41300</v>
+      </c>
+      <c r="L28" s="4">
+        <v>4</v>
+      </c>
       <c r="M28" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="4"/>
+    <row r="29" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="17">
+        <v>41302</v>
+      </c>
+      <c r="F29" s="17">
+        <v>41302</v>
+      </c>
+      <c r="G29" s="4">
+        <v>4</v>
+      </c>
       <c r="H29" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="31"/>
       <c r="L29" s="4"/>
       <c r="M29" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
@@ -2095,45 +2218,179 @@
       </c>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+    <row r="30" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="17">
+        <v>41302</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+    <row r="31" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="17">
+        <v>41302</v>
+      </c>
+      <c r="F31" s="40">
+        <v>41302</v>
+      </c>
+      <c r="G31" s="4">
+        <v>4</v>
+      </c>
+      <c r="H31" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="6"/>
+      <c r="M31" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="17">
+        <v>41302</v>
+      </c>
+      <c r="F32" s="40">
+        <v>41303</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6</v>
+      </c>
+      <c r="H32" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" ht="20.25" customHeight="1">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="2:14" ht="20.25" customHeight="1">
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="20.25" customHeight="1">
       <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F43" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2144,16 +2401,16 @@
       <formula>(ABS((L6-G6))/G6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L31:M31">
+  <conditionalFormatting sqref="L36:M36">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((L31-G31))/G31)&gt;FlagPercent</formula>
+      <formula>(ABS((L36-G36))/G36)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C31 C6:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C36 C6:C27">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D31 D6:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D36 D6:D27">
       <formula1>EmployeeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -2171,7 +2428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2">
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2182,7 +2439,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -2190,13 +2447,13 @@
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="60.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20.25" customHeight="1">
       <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20.25" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2220,7 +2477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20.25" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
@@ -2228,7 +2485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
@@ -2236,12 +2493,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20.25" customHeight="1">
       <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20.25" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>48</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Category</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>**</t>
+  </si>
+  <si>
+    <t>Research AutoPricing Module (DOC)</t>
+  </si>
+  <si>
+    <t>Complete Vendor's Management Item function (SLN)</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -586,11 +595,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -919,8 +928,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N35" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B5:N35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N37" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B5:N37"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Task" dataCellStyle="Text"/>
     <tableColumn id="7" name="Category" dataCellStyle="Text"/>
@@ -1208,10 +1217,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1233,16 +1242,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2261,7 +2270,7 @@
       <c r="E31" s="17">
         <v>41302</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>41302</v>
       </c>
       <c r="G31" s="4">
@@ -2293,7 +2302,7 @@
       <c r="E32" s="17">
         <v>41302</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>41303</v>
       </c>
       <c r="G32" s="4">
@@ -2313,15 +2322,27 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="17">
+        <v>41303</v>
+      </c>
+      <c r="F33" s="39">
+        <v>41305</v>
+      </c>
+      <c r="G33" s="4">
+        <v>6</v>
+      </c>
       <c r="H33" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J33" s="30"/>
       <c r="K33" s="31"/>
@@ -2333,15 +2354,27 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="17">
+        <v>41303</v>
+      </c>
+      <c r="F34" s="39">
+        <v>41305</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
       <c r="H34" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="31"/>
@@ -2353,29 +2386,90 @@
       <c r="N34" s="5"/>
     </row>
     <row r="35" spans="2:14" ht="20.25" customHeight="1">
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="17">
+        <v>41303</v>
+      </c>
+      <c r="F35" s="39">
+        <v>41304</v>
+      </c>
+      <c r="G35" s="4">
+        <v>8</v>
+      </c>
+      <c r="H35" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>1</v>
+      </c>
+      <c r="J35" s="30"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N35" s="5"/>
     </row>
     <row r="36" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="B36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="17">
+        <v>41302</v>
+      </c>
+      <c r="F36" s="39">
+        <v>41303</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="31"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="6"/>
+      <c r="M36" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="N36" s="5"/>
     </row>
     <row r="37" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F37" s="19"/>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F38" s="19"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="2:14" ht="20.25" customHeight="1">
       <c r="F39" s="19"/>
@@ -2391,6 +2485,12 @@
     </row>
     <row r="43" spans="2:14" ht="20.25" customHeight="1">
       <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F45" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2401,16 +2501,16 @@
       <formula>(ABS((L6-G6))/G6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L36:M36">
+  <conditionalFormatting sqref="L38:M38">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((L36-G36))/G36)&gt;FlagPercent</formula>
+      <formula>(ABS((L38-G38))/G38)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C36 C6:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C38 C6:C27">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D36 D6:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D38 D6:D27">
       <formula1>EmployeeList</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
   <si>
     <t>Category</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Change Business</t>
+  </si>
+  <si>
+    <t>ReCreate Basic Design for AutoScheduling (DOC)</t>
+  </si>
+  <si>
+    <t>Create Business  for Pricing Module (DOC)</t>
+  </si>
+  <si>
+    <t>Identified Entity Type and Relationship Type in System ERD (DOC)</t>
+  </si>
+  <si>
+    <t>Create Mockup for AutoSchedule_Configuration (PNG)</t>
   </si>
 </sst>
 </file>
@@ -249,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -333,6 +354,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -477,7 +505,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,6 +628,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -928,8 +977,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N37" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B5:N37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N42" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B5:N42"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Task" dataCellStyle="Text"/>
     <tableColumn id="7" name="Category" dataCellStyle="Text"/>
@@ -1217,10 +1266,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
@@ -1785,7 +1834,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="20.25" customHeight="1">
+    <row r="18" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B18" s="21" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="20.25" customHeight="1">
+    <row r="19" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1859,7 +1908,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" ht="20.25" customHeight="1">
+    <row r="20" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1946,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" ht="20.25" customHeight="1">
+    <row r="21" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
@@ -1937,7 +1986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="20.25" customHeight="1">
+    <row r="22" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B22" s="32" t="s">
         <v>49</v>
       </c>
@@ -1977,7 +2026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="20.25" customHeight="1">
+    <row r="23" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>50</v>
       </c>
@@ -2017,7 +2066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="20.25" customHeight="1">
+    <row r="24" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -2089,7 +2138,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" ht="20.25" customHeight="1">
+    <row r="26" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B26" s="21" t="s">
         <v>55</v>
       </c>
@@ -2123,7 +2172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20.25" customHeight="1">
+    <row r="27" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="20.25" customHeight="1">
+    <row r="28" spans="2:14" ht="20.25" hidden="1" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2218,62 +2267,73 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.5</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="4"/>
+      <c r="J29" s="30">
+        <v>41302</v>
+      </c>
+      <c r="K29" s="31">
+        <v>41302</v>
+      </c>
+      <c r="L29" s="4">
+        <v>4</v>
+      </c>
       <c r="M29" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="5"/>
+      <c r="N29" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="42">
         <v>41302</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="18">
+      <c r="G30" s="44"/>
+      <c r="H30" s="45">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3">
+      <c r="I30" s="46"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="47">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N30" s="5"/>
+      <c r="N30" s="41" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="42">
         <v>41302</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="43">
         <v>41302</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="44">
         <v>4</v>
       </c>
       <c r="H31" s="18">
@@ -2287,7 +2347,9 @@
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="5"/>
+      <c r="N31" s="41" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="2:14" ht="20.25" customHeight="1">
       <c r="B32" s="5" t="s">
@@ -2312,14 +2374,22 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.75</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="4"/>
+      <c r="J32" s="30">
+        <v>41302</v>
+      </c>
+      <c r="K32" s="31">
+        <v>41303</v>
+      </c>
+      <c r="L32" s="4">
+        <v>6</v>
+      </c>
       <c r="M32" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="2:14" ht="20.25" customHeight="1">
       <c r="B33" s="5" t="s">
@@ -2344,12 +2414,18 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.75</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="4"/>
+      <c r="J33" s="30">
+        <v>41303</v>
+      </c>
+      <c r="K33" s="31">
+        <v>41305</v>
+      </c>
+      <c r="L33" s="4">
+        <v>6</v>
+      </c>
       <c r="M33" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N33" s="5"/>
     </row>
@@ -2376,12 +2452,18 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.75</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="4"/>
+      <c r="J34" s="30">
+        <v>41303</v>
+      </c>
+      <c r="K34" s="31">
+        <v>41305</v>
+      </c>
+      <c r="L34" s="4">
+        <v>3</v>
+      </c>
       <c r="M34" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="5"/>
     </row>
@@ -2408,32 +2490,40 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>1</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="4"/>
+      <c r="J35" s="30">
+        <v>41303</v>
+      </c>
+      <c r="K35" s="31">
+        <v>41304</v>
+      </c>
+      <c r="L35" s="4">
+        <v>8</v>
+      </c>
       <c r="M35" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="42">
         <v>41302</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="43">
         <v>41303</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="44">
         <v>4</v>
       </c>
       <c r="H36" s="18">
@@ -2447,50 +2537,200 @@
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="5"/>
+      <c r="N36" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="37" spans="2:14" ht="20.25" customHeight="1">
-      <c r="C37" t="s">
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="17">
+        <v>41306</v>
+      </c>
+      <c r="F37" s="39">
+        <v>41307</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6</v>
+      </c>
+      <c r="H37" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="J37" s="30"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="38" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="17">
+        <v>41306</v>
+      </c>
+      <c r="F38" s="31">
+        <v>41307</v>
+      </c>
+      <c r="G38" s="4">
+        <v>8</v>
+      </c>
+      <c r="H38" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>1</v>
+      </c>
+      <c r="J38" s="30"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="17">
+        <v>41306</v>
+      </c>
+      <c r="F39" s="39">
+        <v>41306</v>
+      </c>
+      <c r="G39" s="4">
+        <v>4</v>
+      </c>
+      <c r="H39" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5"/>
+    </row>
+    <row r="40" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="17">
+        <v>41306</v>
+      </c>
+      <c r="F40" s="39">
+        <v>41307</v>
+      </c>
+      <c r="G40" s="4">
+        <v>6</v>
+      </c>
+      <c r="H40" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="J40" s="30"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" spans="2:14" ht="20.25" customHeight="1">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="30"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" ht="20.25" customHeight="1">
+      <c r="C42" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F42" s="19"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F43" s="19"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="2:14" ht="20.25" customHeight="1">
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="2:14" ht="20.25" customHeight="1">
       <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="2:14" ht="20.25" customHeight="1">
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="6:6" ht="20.25" customHeight="1">
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="6:6" ht="20.25" customHeight="1">
+      <c r="F50" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2501,16 +2741,16 @@
       <formula>(ABS((L6-G6))/G6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L38:M38">
+  <conditionalFormatting sqref="L43:M43">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((L38-G38))/G38)&gt;FlagPercent</formula>
+      <formula>(ABS((L43-G43))/G43)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C38 C6:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C43 C6:C27">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D38 D6:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D43 D6:D27">
       <formula1>EmployeeList</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracker" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="FlagPercent">'Project Tracker'!$F$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Tracker'!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
   <si>
     <t>Category</t>
   </si>
@@ -209,9 +209,6 @@
     <t>Đã có implement sẵn , đang chờ confirm với thầy</t>
   </si>
   <si>
-    <t>[CAPSTONE_K5A_Group5] Weekly Report - 2013.1.21 - 2013.1.28</t>
-  </si>
-  <si>
     <t>Trễ do đang underestimate</t>
   </si>
   <si>
@@ -261,16 +258,49 @@
   </si>
   <si>
     <t>Create Mockup for AutoSchedule_Configuration (PNG)</t>
+  </si>
+  <si>
+    <t>Trễ so với deadline, cuối tuần biến mất tiêu</t>
+  </si>
+  <si>
+    <t>Create Mockup for AutoSchedule_Configuration</t>
+  </si>
+  <si>
+    <t>Create ERD Diagram (VPP)</t>
+  </si>
+  <si>
+    <t>Trễ Deadline, Rework quá nhiều. Chất lượng chưa tốt</t>
+  </si>
+  <si>
+    <t>Create MOCK UP for Pricing Modul (PNG)</t>
+  </si>
+  <si>
+    <t>Create Demo HTML Droppin and Showmap by GMap (HTML)</t>
+  </si>
+  <si>
+    <t>Review ERD Diagram</t>
+  </si>
+  <si>
+    <t>Rework lại quá  nhiều</t>
+  </si>
+  <si>
+    <t>Đã show được map với các pin. Màu từng route phải thay đổi cũng như từng pin trong plan phải thay đổi</t>
+  </si>
+  <si>
+    <t>Coding AutoSchedule with the old source (SLN)</t>
+  </si>
+  <si>
+    <t>[CAPSTONE_K5A_Group5] Weekly Report - 2013.1.29 - 2013.2.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -359,6 +389,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Century Gothic"/>
@@ -505,7 +543,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,28 +664,52 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
@@ -677,30 +739,30 @@
       </font>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -719,11 +781,11 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -977,8 +1039,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N42" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B5:N42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N47" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B5:N47"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Task" dataCellStyle="Text"/>
     <tableColumn id="7" name="Category" dataCellStyle="Text"/>
@@ -1261,18 +1323,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:G40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
@@ -1290,17 +1352,17 @@
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="47"/>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1308,9 +1370,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.25" customHeight="1">
+    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>16</v>
@@ -1319,7 +1381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="20.25" customHeight="1">
+    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1460,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1436,7 +1498,7 @@
       </c>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1536,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="9" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1574,7 @@
       </c>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1552,7 +1614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1590,7 +1652,7 @@
       </c>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>35</v>
       </c>
@@ -1630,7 +1692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
@@ -1710,7 +1772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="20" customFormat="1" ht="20.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:16" s="20" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
@@ -1751,7 +1813,7 @@
       <c r="O15" s="38"/>
       <c r="P15" s="38"/>
     </row>
-    <row r="16" spans="1:16" ht="20.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:16" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>39</v>
       </c>
@@ -1794,7 +1856,7 @@
       <c r="O16" s="38"/>
       <c r="P16" s="38"/>
     </row>
-    <row r="17" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="17" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>40</v>
       </c>
@@ -1834,7 +1896,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="18" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="21" t="s">
         <v>46</v>
       </c>
@@ -1867,10 +1929,10 @@
         <v>-40702</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
@@ -1908,7 +1970,7 @@
       </c>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="20" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>43</v>
       </c>
@@ -1946,7 +2008,7 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="21" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="32" t="s">
         <v>49</v>
       </c>
@@ -1986,7 +2048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="22" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>49</v>
       </c>
@@ -2023,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>50</v>
       </c>
@@ -2066,7 +2128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="24" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="25" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>54</v>
       </c>
@@ -2138,7 +2200,7 @@
       </c>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="26" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="27" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +2268,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="20.25" hidden="1" customHeight="1">
+    <row r="28" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2244,9 +2306,9 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" ht="20.25" customHeight="1">
+    <row r="29" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>20</v>
@@ -2281,59 +2343,59 @@
         <v>0</v>
       </c>
       <c r="N29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="49">
+        <v>41302</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="44">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="45"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="46">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="40" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B30" s="41" t="s">
+    <row r="31" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="42">
+      <c r="C31" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="49">
         <v>41302</v>
       </c>
-      <c r="F30" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45">
-        <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="47">
-        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B31" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="42">
+      <c r="F31" s="50">
         <v>41302</v>
       </c>
-      <c r="F31" s="43">
-        <v>41302</v>
-      </c>
-      <c r="G31" s="44">
+      <c r="G31" s="51">
         <v>4</v>
       </c>
       <c r="H31" s="18">
@@ -2347,13 +2409,13 @@
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" ht="20.25" customHeight="1">
+      <c r="N31" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>48</v>
@@ -2388,12 +2450,12 @@
         <v>1</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="20.25" customHeight="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>48</v>
@@ -2429,9 +2491,9 @@
       </c>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" ht="20.25" customHeight="1">
+    <row r="34" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>48</v>
@@ -2467,9 +2529,9 @@
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" ht="20.25" customHeight="1">
+    <row r="35" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>20</v>
@@ -2504,26 +2566,26 @@
         <v>1</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B36" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>41302</v>
       </c>
-      <c r="F36" s="43">
+      <c r="F36" s="50">
         <v>41303</v>
       </c>
-      <c r="G36" s="44">
+      <c r="G36" s="51">
         <v>4</v>
       </c>
       <c r="H36" s="18">
@@ -2538,44 +2600,49 @@
         <v>0</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="41">
+        <v>41306</v>
+      </c>
+      <c r="F37" s="42">
+        <v>41307</v>
+      </c>
+      <c r="G37" s="43">
+        <v>6</v>
+      </c>
+      <c r="H37" s="44">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="I37" s="45"/>
+      <c r="J37" s="41">
+        <v>41306</v>
+      </c>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="46">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>-40711</v>
+      </c>
+      <c r="N37" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="17">
-        <v>41306</v>
-      </c>
-      <c r="F37" s="39">
-        <v>41307</v>
-      </c>
-      <c r="G37" s="4">
-        <v>6</v>
-      </c>
-      <c r="H37" s="18">
-        <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0.75</v>
-      </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="3">
-        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B38" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>19</v>
@@ -2596,18 +2663,26 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>1</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="4"/>
+      <c r="J38" s="30">
+        <v>41309</v>
+      </c>
+      <c r="K38" s="31">
+        <v>41309</v>
+      </c>
+      <c r="L38" s="4">
+        <v>4</v>
+      </c>
       <c r="M38" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="2:14" ht="20.25" customHeight="1">
+      <c r="N38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>19</v>
@@ -2628,32 +2703,38 @@
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0.5</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="4"/>
+      <c r="J39" s="30">
+        <v>41306</v>
+      </c>
+      <c r="K39" s="31">
+        <v>41306</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
       <c r="M39" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="5" t="s">
+    <row r="40" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="53">
         <v>41306</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="54">
         <v>41307</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="55">
         <v>6</v>
       </c>
       <c r="H40" s="18">
@@ -2669,68 +2750,274 @@
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="4"/>
+    <row r="41" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="17">
+        <v>41308</v>
+      </c>
+      <c r="F41" s="39">
+        <v>41308</v>
+      </c>
+      <c r="G41" s="4">
+        <v>4</v>
+      </c>
       <c r="H41" s="18">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="30">
+        <v>41308</v>
+      </c>
+      <c r="K41" s="31">
+        <v>40942</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="3">
         <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>-360</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="17">
+        <v>41307</v>
+      </c>
+      <c r="F42" s="39">
+        <v>41308</v>
+      </c>
+      <c r="G42" s="4">
+        <v>8</v>
+      </c>
+      <c r="H42" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>1</v>
+      </c>
+      <c r="J42" s="30">
+        <v>41308</v>
+      </c>
+      <c r="K42" s="31">
+        <v>41366</v>
+      </c>
+      <c r="L42" s="4">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>59</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="17">
+        <v>41309</v>
+      </c>
+      <c r="F43" s="39">
+        <v>41309</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4</v>
+      </c>
+      <c r="H43" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="J43" s="30">
+        <v>41309</v>
+      </c>
+      <c r="K43" s="31">
+        <v>41309</v>
+      </c>
+      <c r="L43" s="4">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="2:14" ht="20.25" customHeight="1">
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="2:14" ht="20.25" customHeight="1">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="3"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="6"/>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="2:14" ht="20.25" customHeight="1">
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="6:6" ht="20.25" customHeight="1">
+    <row r="44" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="17">
+        <v>41309</v>
+      </c>
+      <c r="F44" s="39">
+        <v>41310</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8</v>
+      </c>
+      <c r="H44" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>1</v>
+      </c>
+      <c r="J44" s="30">
+        <v>41309</v>
+      </c>
+      <c r="K44" s="31">
+        <v>41310</v>
+      </c>
+      <c r="L44" s="4">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="17">
+        <v>41309</v>
+      </c>
+      <c r="F45" s="39">
+        <v>41310</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="J45" s="30">
+        <v>41309</v>
+      </c>
+      <c r="K45" s="31">
+        <v>41310</v>
+      </c>
+      <c r="L45" s="4">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="17">
+        <v>41310</v>
+      </c>
+      <c r="F46" s="39">
+        <v>41311</v>
+      </c>
+      <c r="G46" s="4">
+        <v>8</v>
+      </c>
+      <c r="H46" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>1</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="3"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="6:6" ht="20.25" customHeight="1">
+    <row r="50" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2741,16 +3028,16 @@
       <formula>(ABS((L6-G6))/G6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L43:M43">
+  <conditionalFormatting sqref="L48:M48">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((L43-G43))/G43)&gt;FlagPercent</formula>
+      <formula>(ABS((L48-G48))/G48)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C43 C6:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C48 C6:C27">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D43 D6:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D48 D6:D27">
       <formula1>EmployeeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -2768,18 +3055,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -2787,13 +3072,13 @@
     <col min="4" max="4" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60.75" customHeight="1">
+    <row r="1" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
@@ -2801,7 +3086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1">
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
@@ -2809,7 +3094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1">
+    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +3102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1">
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
@@ -2825,7 +3110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>22</v>
       </c>
@@ -2833,12 +3118,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1">
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1">
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>48</v>
       </c>

--- a/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
+++ b/trunk/Wip/PM_DOCs/Plan/Project tracker1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="6720"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracker" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="95">
   <si>
     <t>Category</t>
   </si>
@@ -290,7 +290,22 @@
     <t>Coding AutoSchedule with the old source (SLN)</t>
   </si>
   <si>
-    <t>[CAPSTONE_K5A_Group5] Weekly Report - 2013.1.29 - 2013.2.4</t>
+    <t xml:space="preserve">[AutoSchedule] Coding Notification part </t>
+  </si>
+  <si>
+    <t>[AutoSchedule] Research Open Layer (to draw route)</t>
+  </si>
+  <si>
+    <t>[Hub] Create Model for Hub</t>
+  </si>
+  <si>
+    <t>[Item Management] Create Management module for Vendor</t>
+  </si>
+  <si>
+    <t>[ERD] Fix ERD and Create Database Diagram</t>
+  </si>
+  <si>
+    <t>[CAPSTONE_K5A_Group5] Task list</t>
   </si>
 </sst>
 </file>
@@ -434,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -518,6 +533,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,7 +580,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,32 +722,44 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1039,8 +1088,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N47" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B5:N47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projects" displayName="Projects" ref="B5:N53" totalsRowShown="0" headerRowCellStyle="Heading 2">
+  <autoFilter ref="B5:N53"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Task" dataCellStyle="Text"/>
     <tableColumn id="7" name="Category" dataCellStyle="Text"/>
@@ -1328,10 +1377,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:N46"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1353,16 +1402,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="47"/>
+      <c r="C1" s="55"/>
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1421,7 @@
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>16</v>
@@ -2306,7 +2355,7 @@
       </c>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>64</v>
       </c>
@@ -2347,22 +2396,22 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="48">
         <v>41302</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="51"/>
+      <c r="G30" s="50"/>
       <c r="H30" s="44">
         <f>Projects[[#This Row],[Est. Work]]/8</f>
         <v>0</v>
@@ -2380,22 +2429,22 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="48">
         <v>41302</v>
       </c>
-      <c r="F31" s="50">
+      <c r="F31" s="49">
         <v>41302</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="50">
         <v>4</v>
       </c>
       <c r="H31" s="18">
@@ -2413,7 +2462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>67</v>
       </c>
@@ -2453,7 +2502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>69</v>
       </c>
@@ -2491,7 +2540,7 @@
       </c>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
@@ -2529,7 +2578,7 @@
       </c>
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>70</v>
       </c>
@@ -2570,22 +2619,22 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="48">
         <v>41302</v>
       </c>
-      <c r="F36" s="50">
+      <c r="F36" s="49">
         <v>41303</v>
       </c>
-      <c r="G36" s="51">
+      <c r="G36" s="50">
         <v>4</v>
       </c>
       <c r="H36" s="18">
@@ -2603,7 +2652,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="40" t="s">
         <v>75</v>
       </c>
@@ -2640,7 +2689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>76</v>
       </c>
@@ -2680,7 +2729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>77</v>
       </c>
@@ -2719,22 +2768,22 @@
       <c r="N39" s="5"/>
     </row>
     <row r="40" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="52" t="s">
+      <c r="D40" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="52">
         <v>41306</v>
       </c>
-      <c r="F40" s="54">
+      <c r="F40" s="53">
         <v>41307</v>
       </c>
-      <c r="G40" s="55">
+      <c r="G40" s="54">
         <v>6</v>
       </c>
       <c r="H40" s="18">
@@ -2750,7 +2799,7 @@
       </c>
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>80</v>
       </c>
@@ -2786,7 +2835,7 @@
       </c>
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>81</v>
       </c>
@@ -2826,7 +2875,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>83</v>
       </c>
@@ -2864,7 +2913,7 @@
       </c>
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>84</v>
       </c>
@@ -2904,7 +2953,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>85</v>
       </c>
@@ -2944,7 +2993,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>88</v>
       </c>
@@ -2977,47 +3026,235 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="B47" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="17">
+        <v>41325</v>
+      </c>
+      <c r="F47" s="39">
+        <v>41326</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="17">
+        <v>41325</v>
+      </c>
+      <c r="F48" s="39">
+        <v>41325</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="30"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="17">
+        <v>41325</v>
+      </c>
+      <c r="F49" s="39">
+        <v>41329</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="30"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="5"/>
+    </row>
+    <row r="50" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="17">
+        <v>41325</v>
+      </c>
+      <c r="F50" s="39">
+        <v>41328</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="30"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="17">
+        <v>41325</v>
+      </c>
+      <c r="F51" s="39">
+        <v>41325</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="30"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="18">
+        <f>Projects[[#This Row],[Est. Work]]/8</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="30"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="3">
+        <f>DAYS360(Projects[[#This Row],[Actual Start]],Projects[[#This Row],[Actual Finish]],FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="5"/>
+    </row>
+    <row r="53" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="3"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F50" s="19"/>
-    </row>
-    <row r="51" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="6:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="3"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
       <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="58"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="58"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="58"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="58"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="58"/>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="F60" s="19"/>
+    </row>
+    <row r="61" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3028,16 +3265,16 @@
       <formula>(ABS((L6-G6))/G6)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:M48">
+  <conditionalFormatting sqref="L54:M54">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>(ABS((L48-G48))/G48)&gt;FlagPercent</formula>
+      <formula>(ABS((L54-G54))/G54)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C48 C6:C27">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" sqref="C54 C6:C27">
       <formula1>CategoryList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D48 D6:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D54 D6:D27">
       <formula1>EmployeeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -3062,7 +3299,9 @@
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
